--- a/Magnum NonOp Data/Cleaned & Merged OBO List.xlsx
+++ b/Magnum NonOp Data/Cleaned & Merged OBO List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14480"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="NonOp Master" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -9869,7 +9869,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -9923,7 +9923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9942,37 +9942,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -10023,16 +9992,47 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -35719,7 +35719,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -35855,25 +35855,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1422" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="18" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P1422" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A1:P1422"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="API/UWI" dataDxfId="17"/>
-    <tableColumn id="2" name="FILE NAME" dataDxfId="16"/>
-    <tableColumn id="3" name="FILE TYPE" dataDxfId="15"/>
-    <tableColumn id="4" name="OPERATOR" dataDxfId="14"/>
-    <tableColumn id="5" name="COUNTY/PARISH" dataDxfId="13"/>
-    <tableColumn id="6" name="ST" dataDxfId="12"/>
-    <tableColumn id="7" name="PROSPECT" dataDxfId="11"/>
-    <tableColumn id="8" name="PROSPECT/DESCRIPT." dataDxfId="10"/>
-    <tableColumn id="9" name="COMMENTS/NOTES" dataDxfId="9"/>
-    <tableColumn id="10" name="KEEP/SHRED" dataDxfId="8"/>
-    <tableColumn id="11" name="Sell (Y/N)" dataDxfId="7"/>
-    <tableColumn id="12" name="INTEREST (WI,ORRI, ETC)" dataDxfId="6"/>
-    <tableColumn id="13" name="OWNER" dataDxfId="5"/>
-    <tableColumn id="14" name="OPEN MEMO TO OFFICE/FILE" dataDxfId="4"/>
-    <tableColumn id="15" name="CLOSED MEMO TO OFFICE/FILE" dataDxfId="3"/>
-    <tableColumn id="16" name="STORAGE LOCATION" dataDxfId="2"/>
+    <tableColumn id="1" name="API/UWI" dataDxfId="15"/>
+    <tableColumn id="2" name="FILE NAME" dataDxfId="14"/>
+    <tableColumn id="3" name="FILE TYPE" dataDxfId="13"/>
+    <tableColumn id="4" name="OPERATOR" dataDxfId="12"/>
+    <tableColumn id="5" name="COUNTY/PARISH" dataDxfId="11"/>
+    <tableColumn id="6" name="ST" dataDxfId="10"/>
+    <tableColumn id="7" name="PROSPECT" dataDxfId="9"/>
+    <tableColumn id="8" name="PROSPECT/DESCRIPT." dataDxfId="8"/>
+    <tableColumn id="9" name="COMMENTS/NOTES" dataDxfId="7"/>
+    <tableColumn id="10" name="KEEP/SHRED" dataDxfId="6"/>
+    <tableColumn id="11" name="Sell (Y/N)" dataDxfId="5"/>
+    <tableColumn id="12" name="INTEREST (WI,ORRI, ETC)" dataDxfId="4"/>
+    <tableColumn id="13" name="OWNER" dataDxfId="3"/>
+    <tableColumn id="14" name="OPEN MEMO TO OFFICE/FILE" dataDxfId="2"/>
+    <tableColumn id="15" name="CLOSED MEMO TO OFFICE/FILE" dataDxfId="1"/>
+    <tableColumn id="16" name="STORAGE LOCATION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -36166,7 +36166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1422"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -36178,15 +36178,15 @@
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" customWidth="1"/>
-    <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="45" customHeight="1">
@@ -36447,7 +36447,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="28">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -36805,7 +36805,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="28">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -36945,7 +36945,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="42">
+    <row r="22" spans="1:16" ht="56">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -36983,7 +36983,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="42">
+    <row r="23" spans="1:16" ht="56">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -37199,7 +37199,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="28">
+    <row r="29" spans="1:16" ht="42">
       <c r="A29" s="1" t="s">
         <v>148</v>
       </c>
@@ -37235,7 +37235,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="28">
       <c r="A30" s="1" t="s">
         <v>151</v>
       </c>
@@ -37441,7 +37441,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="28">
+    <row r="36" spans="1:16" ht="42">
       <c r="A36" s="1" t="s">
         <v>179</v>
       </c>
@@ -37659,7 +37659,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="28">
+    <row r="42" spans="1:16" ht="42">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>197</v>
@@ -38223,7 +38223,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="84">
+    <row r="57" spans="1:16" ht="112">
       <c r="A57" s="1" t="s">
         <v>240</v>
       </c>
@@ -38337,7 +38337,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="28">
       <c r="A60" s="1" t="s">
         <v>248</v>
       </c>
@@ -38507,7 +38507,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="42">
+    <row r="65" spans="1:16" ht="56">
       <c r="A65" s="1" t="s">
         <v>267</v>
       </c>
@@ -38815,7 +38815,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" ht="28">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -38849,7 +38849,7 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" ht="28">
       <c r="A75" s="1" t="s">
         <v>297</v>
       </c>
@@ -39013,7 +39013,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" ht="28">
+    <row r="80" spans="1:16" ht="42">
       <c r="A80" s="1" t="s">
         <v>312</v>
       </c>
@@ -39225,7 +39225,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:16" ht="42">
+    <row r="86" spans="1:16" ht="56">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>339</v>
@@ -39289,7 +39289,7 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
     </row>
-    <row r="88" spans="1:16" ht="42">
+    <row r="88" spans="1:16" ht="56">
       <c r="A88" s="1" t="s">
         <v>346</v>
       </c>
@@ -39323,7 +39323,7 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" ht="28">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>349</v>
@@ -39421,7 +39421,7 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16" ht="70">
+    <row r="92" spans="1:16" ht="84">
       <c r="A92" s="1" t="s">
         <v>358</v>
       </c>
@@ -39457,7 +39457,7 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16" ht="56">
+    <row r="93" spans="1:16" ht="70">
       <c r="A93" s="1" t="s">
         <v>358</v>
       </c>
@@ -39565,7 +39565,7 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16" ht="28">
+    <row r="96" spans="1:16" ht="42">
       <c r="A96" s="1" t="s">
         <v>363</v>
       </c>
@@ -39601,7 +39601,7 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16" ht="42">
+    <row r="97" spans="1:16" ht="56">
       <c r="A97" s="1" t="s">
         <v>368</v>
       </c>
@@ -39673,7 +39673,7 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
-    <row r="99" spans="1:16" ht="42">
+    <row r="99" spans="1:16" ht="56">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>374</v>
@@ -39707,7 +39707,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
-    <row r="100" spans="1:16" ht="42">
+    <row r="100" spans="1:16" ht="56">
       <c r="A100" s="1" t="s">
         <v>378</v>
       </c>
@@ -39991,7 +39991,7 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" ht="28">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>409</v>
@@ -40089,7 +40089,7 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" ht="28">
+    <row r="111" spans="1:16" ht="42">
       <c r="A111" s="1" t="s">
         <v>418</v>
       </c>
@@ -40467,7 +40467,7 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16" ht="28">
+    <row r="122" spans="1:16" ht="42">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>450</v>
@@ -43971,7 +43971,7 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" ht="28">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>680</v>
@@ -44939,7 +44939,7 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" ht="28">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>751</v>
@@ -45161,7 +45161,7 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
     </row>
-    <row r="267" spans="1:16" ht="56">
+    <row r="267" spans="1:16" ht="70">
       <c r="A267" s="1" t="s">
         <v>769</v>
       </c>
@@ -45197,7 +45197,7 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
     </row>
-    <row r="268" spans="1:16" ht="42">
+    <row r="268" spans="1:16" ht="56">
       <c r="A268" s="1" t="s">
         <v>775</v>
       </c>
@@ -46179,7 +46179,7 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:16" ht="28">
+    <row r="301" spans="1:16" ht="42">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>835</v>
@@ -46721,7 +46721,7 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" ht="28">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>873</v>
@@ -46785,7 +46785,7 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" ht="28">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>876</v>
@@ -48159,7 +48159,7 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
     </row>
-    <row r="361" spans="1:16">
+    <row r="361" spans="1:16" ht="28">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>971</v>
@@ -49317,7 +49317,7 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
     </row>
-    <row r="398" spans="1:16">
+    <row r="398" spans="1:16" ht="28">
       <c r="A398" s="1"/>
       <c r="B398" s="1" t="s">
         <v>1023</v>
@@ -50947,7 +50947,7 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" spans="1:16" ht="28">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="s">
         <v>1091</v>
@@ -51587,7 +51587,7 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
     </row>
-    <row r="469" spans="1:16" ht="28">
+    <row r="469" spans="1:16" ht="42">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>1134</v>
@@ -51623,7 +51623,7 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
     </row>
-    <row r="470" spans="1:16" ht="28">
+    <row r="470" spans="1:16" ht="42">
       <c r="A470" s="1"/>
       <c r="B470" s="1" t="s">
         <v>1138</v>
@@ -51659,7 +51659,7 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
     </row>
-    <row r="471" spans="1:16" ht="56">
+    <row r="471" spans="1:16" ht="84">
       <c r="A471" s="1" t="s">
         <v>769</v>
       </c>
@@ -51697,7 +51697,7 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
     </row>
-    <row r="472" spans="1:16" ht="28">
+    <row r="472" spans="1:16" ht="42">
       <c r="A472" s="1" t="s">
         <v>1142</v>
       </c>
@@ -51735,7 +51735,7 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
     </row>
-    <row r="473" spans="1:16" ht="28">
+    <row r="473" spans="1:16" ht="42">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>1145</v>
@@ -51767,7 +51767,7 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
     </row>
-    <row r="474" spans="1:16" ht="28">
+    <row r="474" spans="1:16" ht="42">
       <c r="A474" s="1" t="s">
         <v>1146</v>
       </c>
@@ -51805,7 +51805,7 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
     </row>
-    <row r="475" spans="1:16" ht="42">
+    <row r="475" spans="1:16" ht="56">
       <c r="A475" s="1" t="s">
         <v>1152</v>
       </c>
@@ -52103,7 +52103,7 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
     </row>
-    <row r="484" spans="1:16">
+    <row r="484" spans="1:16" ht="28">
       <c r="A484" s="1"/>
       <c r="B484" s="1" t="s">
         <v>1175</v>
@@ -52937,7 +52937,7 @@
       <c r="O509" s="1"/>
       <c r="P509" s="1"/>
     </row>
-    <row r="510" spans="1:16" ht="56">
+    <row r="510" spans="1:16" ht="84">
       <c r="A510" s="1" t="s">
         <v>1209</v>
       </c>
@@ -52973,7 +52973,7 @@
       <c r="O510" s="1"/>
       <c r="P510" s="1"/>
     </row>
-    <row r="511" spans="1:16" ht="56">
+    <row r="511" spans="1:16" ht="84">
       <c r="A511" s="1" t="s">
         <v>1214</v>
       </c>
@@ -53301,7 +53301,7 @@
       <c r="O520" s="1"/>
       <c r="P520" s="1"/>
     </row>
-    <row r="521" spans="1:16" ht="28">
+    <row r="521" spans="1:16" ht="42">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="s">
         <v>1234</v>
@@ -53333,7 +53333,7 @@
       <c r="O521" s="1"/>
       <c r="P521" s="1"/>
     </row>
-    <row r="522" spans="1:16" ht="28">
+    <row r="522" spans="1:16" ht="42">
       <c r="A522" s="1"/>
       <c r="B522" s="1" t="s">
         <v>1236</v>
@@ -53365,7 +53365,7 @@
       <c r="O522" s="1"/>
       <c r="P522" s="1"/>
     </row>
-    <row r="523" spans="1:16" ht="28">
+    <row r="523" spans="1:16" ht="42">
       <c r="A523" s="1"/>
       <c r="B523" s="1" t="s">
         <v>1237</v>
@@ -53397,7 +53397,7 @@
       <c r="O523" s="1"/>
       <c r="P523" s="1"/>
     </row>
-    <row r="524" spans="1:16" ht="28">
+    <row r="524" spans="1:16" ht="42">
       <c r="A524" s="1"/>
       <c r="B524" s="1" t="s">
         <v>1238</v>
@@ -54115,7 +54115,7 @@
       <c r="O546" s="1"/>
       <c r="P546" s="1"/>
     </row>
-    <row r="547" spans="1:16" ht="56">
+    <row r="547" spans="1:16" ht="70">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>1274</v>
@@ -55345,7 +55345,7 @@
       <c r="O584" s="1"/>
       <c r="P584" s="1"/>
     </row>
-    <row r="585" spans="1:16">
+    <row r="585" spans="1:16" ht="28">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="s">
         <v>1363</v>
@@ -55475,7 +55475,7 @@
       <c r="O588" s="1"/>
       <c r="P588" s="1"/>
     </row>
-    <row r="589" spans="1:16" ht="42">
+    <row r="589" spans="1:16" ht="56">
       <c r="A589" s="1" t="s">
         <v>1374</v>
       </c>
@@ -55513,7 +55513,7 @@
       <c r="O589" s="1"/>
       <c r="P589" s="1"/>
     </row>
-    <row r="590" spans="1:16" ht="28">
+    <row r="590" spans="1:16" ht="42">
       <c r="A590" s="1" t="s">
         <v>1379</v>
       </c>
@@ -56111,7 +56111,7 @@
       <c r="O608" s="1"/>
       <c r="P608" s="1"/>
     </row>
-    <row r="609" spans="1:16" ht="42">
+    <row r="609" spans="1:16" ht="70">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>1412</v>
@@ -56147,7 +56147,7 @@
       <c r="O609" s="1"/>
       <c r="P609" s="1"/>
     </row>
-    <row r="610" spans="1:16" ht="42">
+    <row r="610" spans="1:16" ht="70">
       <c r="A610" s="1"/>
       <c r="B610" s="1" t="s">
         <v>1416</v>
@@ -56561,7 +56561,7 @@
       <c r="O622" s="1"/>
       <c r="P622" s="1"/>
     </row>
-    <row r="623" spans="1:16" ht="28">
+    <row r="623" spans="1:16" ht="42">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>1443</v>
@@ -56595,7 +56595,7 @@
       <c r="O623" s="1"/>
       <c r="P623" s="1"/>
     </row>
-    <row r="624" spans="1:16" ht="84">
+    <row r="624" spans="1:16" ht="112">
       <c r="A624" s="1" t="s">
         <v>1448</v>
       </c>
@@ -56811,7 +56811,7 @@
       <c r="O629" s="1"/>
       <c r="P629" s="1"/>
     </row>
-    <row r="630" spans="1:16" ht="28">
+    <row r="630" spans="1:16" ht="42">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>1459</v>
@@ -56847,7 +56847,7 @@
       <c r="O630" s="1"/>
       <c r="P630" s="1"/>
     </row>
-    <row r="631" spans="1:16" ht="28">
+    <row r="631" spans="1:16" ht="42">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>1461</v>
@@ -57347,7 +57347,7 @@
       <c r="O644" s="1"/>
       <c r="P644" s="1"/>
     </row>
-    <row r="645" spans="1:16" ht="42">
+    <row r="645" spans="1:16" ht="56">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>1478</v>
@@ -57381,7 +57381,7 @@
       <c r="O645" s="1"/>
       <c r="P645" s="1"/>
     </row>
-    <row r="646" spans="1:16" ht="42">
+    <row r="646" spans="1:16" ht="56">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>1481</v>
@@ -57833,7 +57833,7 @@
       <c r="O659" s="1"/>
       <c r="P659" s="1"/>
     </row>
-    <row r="660" spans="1:16">
+    <row r="660" spans="1:16" ht="28">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>1506</v>
@@ -57867,7 +57867,7 @@
       <c r="O660" s="1"/>
       <c r="P660" s="1"/>
     </row>
-    <row r="661" spans="1:16">
+    <row r="661" spans="1:16" ht="28">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>1507</v>
@@ -57901,7 +57901,7 @@
       <c r="O661" s="1"/>
       <c r="P661" s="1"/>
     </row>
-    <row r="662" spans="1:16">
+    <row r="662" spans="1:16" ht="28">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>1508</v>
@@ -57935,7 +57935,7 @@
       <c r="O662" s="1"/>
       <c r="P662" s="1"/>
     </row>
-    <row r="663" spans="1:16">
+    <row r="663" spans="1:16" ht="28">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>1509</v>
@@ -58075,7 +58075,7 @@
       </c>
       <c r="P666" s="1"/>
     </row>
-    <row r="667" spans="1:16">
+    <row r="667" spans="1:16" ht="28">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>1519</v>
@@ -58171,7 +58171,7 @@
       <c r="O669" s="1"/>
       <c r="P669" s="1"/>
     </row>
-    <row r="670" spans="1:16" ht="28">
+    <row r="670" spans="1:16" ht="42">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>1526</v>
@@ -58207,7 +58207,7 @@
       <c r="O670" s="1"/>
       <c r="P670" s="1"/>
     </row>
-    <row r="671" spans="1:16" ht="28">
+    <row r="671" spans="1:16" ht="42">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>1529</v>
@@ -58243,7 +58243,7 @@
       <c r="O671" s="1"/>
       <c r="P671" s="1"/>
     </row>
-    <row r="672" spans="1:16" ht="28">
+    <row r="672" spans="1:16" ht="42">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>1531</v>
@@ -58435,7 +58435,7 @@
       <c r="O677" s="1"/>
       <c r="P677" s="1"/>
     </row>
-    <row r="678" spans="1:16" ht="28">
+    <row r="678" spans="1:16" ht="42">
       <c r="A678" s="1" t="s">
         <v>1539</v>
       </c>
@@ -58699,7 +58699,7 @@
       <c r="O685" s="1"/>
       <c r="P685" s="1"/>
     </row>
-    <row r="686" spans="1:16" ht="28">
+    <row r="686" spans="1:16" ht="42">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>1557</v>
@@ -59131,7 +59131,7 @@
       <c r="O699" s="1"/>
       <c r="P699" s="1"/>
     </row>
-    <row r="700" spans="1:16">
+    <row r="700" spans="1:16" ht="28">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>1584</v>
@@ -60005,7 +60005,7 @@
       <c r="O725" s="1"/>
       <c r="P725" s="1"/>
     </row>
-    <row r="726" spans="1:16">
+    <row r="726" spans="1:16" ht="28">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>1631</v>
@@ -60037,7 +60037,7 @@
       <c r="O726" s="1"/>
       <c r="P726" s="1"/>
     </row>
-    <row r="727" spans="1:16">
+    <row r="727" spans="1:16" ht="28">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>1634</v>
@@ -60069,7 +60069,7 @@
       <c r="O727" s="1"/>
       <c r="P727" s="1"/>
     </row>
-    <row r="728" spans="1:16">
+    <row r="728" spans="1:16" ht="28">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>1635</v>
@@ -61121,7 +61121,7 @@
       <c r="O760" s="1"/>
       <c r="P760" s="1"/>
     </row>
-    <row r="761" spans="1:16" ht="28">
+    <row r="761" spans="1:16" ht="42">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="s">
         <v>1701</v>
@@ -61315,7 +61315,7 @@
       <c r="O766" s="1"/>
       <c r="P766" s="1"/>
     </row>
-    <row r="767" spans="1:16" ht="28">
+    <row r="767" spans="1:16" ht="42">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="s">
         <v>1712</v>
@@ -61349,7 +61349,7 @@
       <c r="O767" s="1"/>
       <c r="P767" s="1"/>
     </row>
-    <row r="768" spans="1:16" ht="28">
+    <row r="768" spans="1:16" ht="42">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="s">
         <v>1715</v>
@@ -63987,7 +63987,7 @@
       <c r="O849" s="1"/>
       <c r="P849" s="1"/>
     </row>
-    <row r="850" spans="1:16" ht="28">
+    <row r="850" spans="1:16" ht="42">
       <c r="A850" s="1" t="s">
         <v>1855</v>
       </c>
@@ -64051,7 +64051,7 @@
       <c r="O851" s="1"/>
       <c r="P851" s="1"/>
     </row>
-    <row r="852" spans="1:16" ht="42">
+    <row r="852" spans="1:16" ht="70">
       <c r="A852" s="1"/>
       <c r="B852" s="1" t="s">
         <v>1861</v>
@@ -64085,7 +64085,7 @@
       <c r="O852" s="1"/>
       <c r="P852" s="1"/>
     </row>
-    <row r="853" spans="1:16" ht="42">
+    <row r="853" spans="1:16" ht="70">
       <c r="A853" s="1"/>
       <c r="B853" s="1" t="s">
         <v>1862</v>
@@ -64119,7 +64119,7 @@
       <c r="O853" s="1"/>
       <c r="P853" s="1"/>
     </row>
-    <row r="854" spans="1:16" ht="42">
+    <row r="854" spans="1:16" ht="70">
       <c r="A854" s="1"/>
       <c r="B854" s="1" t="s">
         <v>1864</v>
@@ -64153,7 +64153,7 @@
       <c r="O854" s="1"/>
       <c r="P854" s="1"/>
     </row>
-    <row r="855" spans="1:16" ht="42">
+    <row r="855" spans="1:16" ht="70">
       <c r="A855" s="1"/>
       <c r="B855" s="1" t="s">
         <v>1865</v>
@@ -64187,7 +64187,7 @@
       <c r="O855" s="1"/>
       <c r="P855" s="1"/>
     </row>
-    <row r="856" spans="1:16" ht="42">
+    <row r="856" spans="1:16" ht="70">
       <c r="A856" s="1"/>
       <c r="B856" s="1" t="s">
         <v>1867</v>
@@ -64221,7 +64221,7 @@
       <c r="O856" s="1"/>
       <c r="P856" s="1"/>
     </row>
-    <row r="857" spans="1:16" ht="42">
+    <row r="857" spans="1:16" ht="70">
       <c r="A857" s="1"/>
       <c r="B857" s="1" t="s">
         <v>1868</v>
@@ -64255,7 +64255,7 @@
       <c r="O857" s="1"/>
       <c r="P857" s="1"/>
     </row>
-    <row r="858" spans="1:16" ht="42">
+    <row r="858" spans="1:16" ht="70">
       <c r="A858" s="1"/>
       <c r="B858" s="1" t="s">
         <v>1869</v>
@@ -67107,7 +67107,7 @@
       <c r="O947" s="1"/>
       <c r="P947" s="1"/>
     </row>
-    <row r="948" spans="1:16">
+    <row r="948" spans="1:16" ht="28">
       <c r="A948" s="1"/>
       <c r="B948" s="1" t="s">
         <v>2024</v>
@@ -67139,7 +67139,7 @@
       <c r="O948" s="1"/>
       <c r="P948" s="1"/>
     </row>
-    <row r="949" spans="1:16" ht="28">
+    <row r="949" spans="1:16" ht="42">
       <c r="A949" s="1" t="s">
         <v>2027</v>
       </c>
@@ -67553,7 +67553,7 @@
       <c r="O962" s="1"/>
       <c r="P962" s="1"/>
     </row>
-    <row r="963" spans="1:16">
+    <row r="963" spans="1:16" ht="28">
       <c r="A963" s="1" t="s">
         <v>2048</v>
       </c>
@@ -67613,7 +67613,7 @@
       <c r="O964" s="1"/>
       <c r="P964" s="1"/>
     </row>
-    <row r="965" spans="1:16">
+    <row r="965" spans="1:16" ht="28">
       <c r="A965" s="1"/>
       <c r="B965" s="1" t="s">
         <v>2051</v>
@@ -67643,7 +67643,7 @@
       <c r="O965" s="1"/>
       <c r="P965" s="1"/>
     </row>
-    <row r="966" spans="1:16">
+    <row r="966" spans="1:16" ht="28">
       <c r="A966" s="1"/>
       <c r="B966" s="1" t="s">
         <v>2053</v>
@@ -67675,7 +67675,7 @@
       <c r="O966" s="1"/>
       <c r="P966" s="1"/>
     </row>
-    <row r="967" spans="1:16">
+    <row r="967" spans="1:16" ht="28">
       <c r="A967" s="1"/>
       <c r="B967" s="1" t="s">
         <v>2055</v>
@@ -67847,7 +67847,7 @@
       <c r="O972" s="1"/>
       <c r="P972" s="1"/>
     </row>
-    <row r="973" spans="1:16">
+    <row r="973" spans="1:16" ht="28">
       <c r="A973" s="1"/>
       <c r="B973" s="1" t="s">
         <v>2063</v>
@@ -67879,7 +67879,7 @@
       <c r="O973" s="1"/>
       <c r="P973" s="1"/>
     </row>
-    <row r="974" spans="1:16">
+    <row r="974" spans="1:16" ht="28">
       <c r="A974" s="1"/>
       <c r="B974" s="1" t="s">
         <v>2065</v>
@@ -67911,7 +67911,7 @@
       <c r="O974" s="1"/>
       <c r="P974" s="1"/>
     </row>
-    <row r="975" spans="1:16">
+    <row r="975" spans="1:16" ht="28">
       <c r="A975" s="1"/>
       <c r="B975" s="1" t="s">
         <v>2066</v>
@@ -68167,7 +68167,7 @@
       <c r="O983" s="1"/>
       <c r="P983" s="1"/>
     </row>
-    <row r="984" spans="1:16">
+    <row r="984" spans="1:16" ht="28">
       <c r="A984" s="1"/>
       <c r="B984" s="1" t="s">
         <v>2078</v>
@@ -68199,7 +68199,7 @@
       <c r="O984" s="1"/>
       <c r="P984" s="1"/>
     </row>
-    <row r="985" spans="1:16">
+    <row r="985" spans="1:16" ht="28">
       <c r="A985" s="1"/>
       <c r="B985" s="1" t="s">
         <v>2079</v>
@@ -68231,7 +68231,7 @@
       <c r="O985" s="1"/>
       <c r="P985" s="1"/>
     </row>
-    <row r="986" spans="1:16">
+    <row r="986" spans="1:16" ht="28">
       <c r="A986" s="1"/>
       <c r="B986" s="1" t="s">
         <v>2081</v>
@@ -68459,7 +68459,7 @@
       <c r="O993" s="1"/>
       <c r="P993" s="1"/>
     </row>
-    <row r="994" spans="1:16">
+    <row r="994" spans="1:16" ht="28">
       <c r="A994" s="1"/>
       <c r="B994" s="1" t="s">
         <v>2091</v>
@@ -70033,7 +70033,7 @@
       <c r="O1049" s="1"/>
       <c r="P1049" s="1"/>
     </row>
-    <row r="1050" spans="1:16">
+    <row r="1050" spans="1:16" ht="28">
       <c r="A1050" s="1"/>
       <c r="B1050" s="1" t="s">
         <v>2169</v>
@@ -70345,7 +70345,7 @@
       <c r="O1060" s="1"/>
       <c r="P1060" s="1"/>
     </row>
-    <row r="1061" spans="1:16">
+    <row r="1061" spans="1:16" ht="28">
       <c r="A1061" s="1"/>
       <c r="B1061" s="1" t="s">
         <v>2184</v>
@@ -70541,7 +70541,7 @@
       <c r="O1067" s="1"/>
       <c r="P1067" s="1"/>
     </row>
-    <row r="1068" spans="1:16">
+    <row r="1068" spans="1:16" ht="28">
       <c r="A1068" s="1"/>
       <c r="B1068" s="1" t="s">
         <v>2197</v>
@@ -70569,7 +70569,7 @@
       <c r="O1068" s="1"/>
       <c r="P1068" s="1"/>
     </row>
-    <row r="1069" spans="1:16">
+    <row r="1069" spans="1:16" ht="28">
       <c r="A1069" s="1"/>
       <c r="B1069" s="1" t="s">
         <v>2198</v>
@@ -70625,7 +70625,7 @@
       <c r="O1070" s="1"/>
       <c r="P1070" s="1"/>
     </row>
-    <row r="1071" spans="1:16">
+    <row r="1071" spans="1:16" ht="28">
       <c r="A1071" s="1"/>
       <c r="B1071" s="1" t="s">
         <v>2200</v>
@@ -70677,7 +70677,7 @@
       <c r="O1072" s="1"/>
       <c r="P1072" s="1"/>
     </row>
-    <row r="1073" spans="1:16" ht="56">
+    <row r="1073" spans="1:16" ht="84">
       <c r="A1073" s="1" t="s">
         <v>2204</v>
       </c>
@@ -70713,7 +70713,7 @@
       <c r="O1073" s="1"/>
       <c r="P1073" s="1"/>
     </row>
-    <row r="1074" spans="1:16" ht="28">
+    <row r="1074" spans="1:16" ht="42">
       <c r="A1074" s="1" t="s">
         <v>2209</v>
       </c>
@@ -70901,7 +70901,7 @@
       <c r="O1078" s="1"/>
       <c r="P1078" s="1"/>
     </row>
-    <row r="1079" spans="1:16" ht="28">
+    <row r="1079" spans="1:16" ht="42">
       <c r="A1079" s="1" t="s">
         <v>2232</v>
       </c>
@@ -71073,7 +71073,7 @@
       <c r="O1083" s="1"/>
       <c r="P1083" s="1"/>
     </row>
-    <row r="1084" spans="1:16" ht="42">
+    <row r="1084" spans="1:16" ht="56">
       <c r="A1084" s="1" t="s">
         <v>2251</v>
       </c>
@@ -71109,7 +71109,7 @@
       <c r="O1084" s="1"/>
       <c r="P1084" s="1"/>
     </row>
-    <row r="1085" spans="1:16" ht="42">
+    <row r="1085" spans="1:16" ht="56">
       <c r="A1085" s="1" t="s">
         <v>2256</v>
       </c>
@@ -71145,7 +71145,7 @@
       <c r="O1085" s="1"/>
       <c r="P1085" s="1"/>
     </row>
-    <row r="1086" spans="1:16" ht="42">
+    <row r="1086" spans="1:16" ht="56">
       <c r="A1086" s="1" t="s">
         <v>2258</v>
       </c>
@@ -71181,7 +71181,7 @@
       <c r="O1086" s="1"/>
       <c r="P1086" s="1"/>
     </row>
-    <row r="1087" spans="1:16" ht="42">
+    <row r="1087" spans="1:16" ht="56">
       <c r="A1087" s="1" t="s">
         <v>2260</v>
       </c>
@@ -71447,7 +71447,7 @@
       <c r="O1093" s="1"/>
       <c r="P1093" s="1"/>
     </row>
-    <row r="1094" spans="1:16" ht="42">
+    <row r="1094" spans="1:16" ht="56">
       <c r="A1094" s="1" t="s">
         <v>2279</v>
       </c>
@@ -71485,7 +71485,7 @@
       <c r="O1094" s="1"/>
       <c r="P1094" s="1"/>
     </row>
-    <row r="1095" spans="1:16" ht="42">
+    <row r="1095" spans="1:16" ht="56">
       <c r="A1095" s="1" t="s">
         <v>2284</v>
       </c>
@@ -71521,7 +71521,7 @@
       <c r="O1095" s="1"/>
       <c r="P1095" s="1"/>
     </row>
-    <row r="1096" spans="1:16" ht="42">
+    <row r="1096" spans="1:16" ht="56">
       <c r="A1096" s="1" t="s">
         <v>2286</v>
       </c>
@@ -71557,7 +71557,7 @@
       <c r="O1096" s="1"/>
       <c r="P1096" s="1"/>
     </row>
-    <row r="1097" spans="1:16" ht="42">
+    <row r="1097" spans="1:16" ht="56">
       <c r="A1097" s="1" t="s">
         <v>2289</v>
       </c>
@@ -71917,7 +71917,7 @@
       <c r="O1106" s="1"/>
       <c r="P1106" s="1"/>
     </row>
-    <row r="1107" spans="1:16" ht="56">
+    <row r="1107" spans="1:16" ht="70">
       <c r="A1107" s="1" t="s">
         <v>2312</v>
       </c>
@@ -71953,7 +71953,7 @@
       <c r="O1107" s="1"/>
       <c r="P1107" s="1"/>
     </row>
-    <row r="1108" spans="1:16" ht="56">
+    <row r="1108" spans="1:16" ht="70">
       <c r="A1108" s="1" t="s">
         <v>2315</v>
       </c>
@@ -71989,7 +71989,7 @@
       <c r="O1108" s="1"/>
       <c r="P1108" s="1"/>
     </row>
-    <row r="1109" spans="1:16" ht="56">
+    <row r="1109" spans="1:16" ht="70">
       <c r="A1109" s="1" t="s">
         <v>2317</v>
       </c>
@@ -72025,7 +72025,7 @@
       <c r="O1109" s="1"/>
       <c r="P1109" s="1"/>
     </row>
-    <row r="1110" spans="1:16" ht="56">
+    <row r="1110" spans="1:16" ht="70">
       <c r="A1110" s="1" t="s">
         <v>2319</v>
       </c>
@@ -72061,7 +72061,7 @@
       <c r="O1110" s="1"/>
       <c r="P1110" s="1"/>
     </row>
-    <row r="1111" spans="1:16" ht="56">
+    <row r="1111" spans="1:16" ht="70">
       <c r="A1111" s="1" t="s">
         <v>2321</v>
       </c>
@@ -72097,7 +72097,7 @@
       <c r="O1111" s="1"/>
       <c r="P1111" s="1"/>
     </row>
-    <row r="1112" spans="1:16" ht="56">
+    <row r="1112" spans="1:16" ht="70">
       <c r="A1112" s="1" t="s">
         <v>2323</v>
       </c>
@@ -72313,7 +72313,7 @@
       <c r="O1117" s="1"/>
       <c r="P1117" s="1"/>
     </row>
-    <row r="1118" spans="1:16" ht="28">
+    <row r="1118" spans="1:16" ht="42">
       <c r="A1118" s="1" t="s">
         <v>2337</v>
       </c>
@@ -72553,7 +72553,7 @@
       <c r="O1124" s="1"/>
       <c r="P1124" s="1"/>
     </row>
-    <row r="1125" spans="1:16" ht="28">
+    <row r="1125" spans="1:16" ht="42">
       <c r="A1125" s="1"/>
       <c r="B1125" s="1" t="s">
         <v>2357</v>
@@ -72619,7 +72619,7 @@
       <c r="O1126" s="1"/>
       <c r="P1126" s="1"/>
     </row>
-    <row r="1127" spans="1:16" ht="28">
+    <row r="1127" spans="1:16" ht="42">
       <c r="A1127" s="1"/>
       <c r="B1127" s="1" t="s">
         <v>2364</v>
@@ -72689,7 +72689,7 @@
       <c r="O1128" s="1"/>
       <c r="P1128" s="1"/>
     </row>
-    <row r="1129" spans="1:16" ht="28">
+    <row r="1129" spans="1:16" ht="42">
       <c r="A1129" s="1"/>
       <c r="B1129" s="1" t="s">
         <v>2374</v>
@@ -73385,7 +73385,7 @@
       <c r="O1149" s="1"/>
       <c r="P1149" s="1"/>
     </row>
-    <row r="1150" spans="1:16" ht="56">
+    <row r="1150" spans="1:16" ht="70">
       <c r="A1150" s="1"/>
       <c r="B1150" s="1" t="s">
         <v>2428</v>
@@ -73533,7 +73533,7 @@
       <c r="O1153" s="1"/>
       <c r="P1153" s="1"/>
     </row>
-    <row r="1154" spans="1:16" ht="56">
+    <row r="1154" spans="1:16" ht="98">
       <c r="A1154" s="1"/>
       <c r="B1154" s="1" t="s">
         <v>2441</v>
@@ -73567,7 +73567,7 @@
       <c r="O1154" s="1"/>
       <c r="P1154" s="1"/>
     </row>
-    <row r="1155" spans="1:16" ht="42">
+    <row r="1155" spans="1:16" ht="56">
       <c r="A1155" s="1" t="s">
         <v>2445</v>
       </c>
@@ -76087,7 +76087,7 @@
       <c r="O1230" s="1"/>
       <c r="P1230" s="1"/>
     </row>
-    <row r="1231" spans="1:16" ht="28">
+    <row r="1231" spans="1:16" ht="42">
       <c r="A1231" s="1" t="s">
         <v>2681</v>
       </c>
@@ -76195,7 +76195,7 @@
       <c r="O1233" s="1"/>
       <c r="P1233" s="1"/>
     </row>
-    <row r="1234" spans="1:16" ht="42">
+    <row r="1234" spans="1:16" ht="70">
       <c r="A1234" s="1"/>
       <c r="B1234" s="1" t="s">
         <v>2697</v>
@@ -76227,7 +76227,7 @@
       <c r="O1234" s="1"/>
       <c r="P1234" s="1"/>
     </row>
-    <row r="1235" spans="1:16" ht="28">
+    <row r="1235" spans="1:16" ht="42">
       <c r="A1235" s="1" t="s">
         <v>2700</v>
       </c>
@@ -76263,7 +76263,7 @@
       <c r="O1235" s="1"/>
       <c r="P1235" s="1"/>
     </row>
-    <row r="1236" spans="1:16" ht="28">
+    <row r="1236" spans="1:16" ht="42">
       <c r="A1236" s="1" t="s">
         <v>2705</v>
       </c>
@@ -76475,7 +76475,7 @@
       <c r="O1241" s="1"/>
       <c r="P1241" s="1"/>
     </row>
-    <row r="1242" spans="1:16" ht="42">
+    <row r="1242" spans="1:16" ht="56">
       <c r="A1242" s="1"/>
       <c r="B1242" s="1" t="s">
         <v>2729</v>
@@ -76671,7 +76671,7 @@
       <c r="O1247" s="1"/>
       <c r="P1247" s="1"/>
     </row>
-    <row r="1248" spans="1:16" ht="28">
+    <row r="1248" spans="1:16" ht="42">
       <c r="A1248" s="1"/>
       <c r="B1248" s="1" t="s">
         <v>2741</v>
@@ -76845,7 +76845,7 @@
       <c r="O1252" s="1"/>
       <c r="P1252" s="1"/>
     </row>
-    <row r="1253" spans="1:16" ht="42">
+    <row r="1253" spans="1:16" ht="56">
       <c r="A1253" s="1" t="s">
         <v>2767</v>
       </c>
@@ -77403,7 +77403,7 @@
       <c r="O1267" s="1"/>
       <c r="P1267" s="1"/>
     </row>
-    <row r="1268" spans="1:16" ht="28">
+    <row r="1268" spans="1:16" ht="42">
       <c r="A1268" s="1" t="s">
         <v>2838</v>
       </c>
@@ -77625,7 +77625,7 @@
       <c r="O1273" s="1"/>
       <c r="P1273" s="1"/>
     </row>
-    <row r="1274" spans="1:16">
+    <row r="1274" spans="1:16" ht="28">
       <c r="A1274" s="1" t="s">
         <v>2857</v>
       </c>
@@ -77881,7 +77881,7 @@
       <c r="O1280" s="1"/>
       <c r="P1280" s="1"/>
     </row>
-    <row r="1281" spans="1:16">
+    <row r="1281" spans="1:16" ht="28">
       <c r="A1281" s="1"/>
       <c r="B1281" s="1" t="s">
         <v>2882</v>
@@ -78175,7 +78175,7 @@
       <c r="O1288" s="1"/>
       <c r="P1288" s="1"/>
     </row>
-    <row r="1289" spans="1:16" ht="56">
+    <row r="1289" spans="1:16" ht="70">
       <c r="A1289" s="1"/>
       <c r="B1289" s="1" t="s">
         <v>2911</v>
@@ -78401,7 +78401,7 @@
       <c r="O1294" s="1"/>
       <c r="P1294" s="1"/>
     </row>
-    <row r="1295" spans="1:16" ht="28">
+    <row r="1295" spans="1:16" ht="42">
       <c r="A1295" s="1"/>
       <c r="B1295" s="1" t="s">
         <v>2934</v>
@@ -78547,7 +78547,7 @@
       <c r="O1298" s="1"/>
       <c r="P1298" s="1"/>
     </row>
-    <row r="1299" spans="1:16" ht="42">
+    <row r="1299" spans="1:16" ht="70">
       <c r="A1299" s="1"/>
       <c r="B1299" s="1" t="s">
         <v>2950</v>
@@ -78841,7 +78841,7 @@
       <c r="O1306" s="1"/>
       <c r="P1306" s="1"/>
     </row>
-    <row r="1307" spans="1:16" ht="42">
+    <row r="1307" spans="1:16" ht="70">
       <c r="A1307" s="1" t="s">
         <v>2991</v>
       </c>
@@ -81513,7 +81513,7 @@
       <c r="O1387" s="1"/>
       <c r="P1387" s="1"/>
     </row>
-    <row r="1388" spans="1:16" ht="42">
+    <row r="1388" spans="1:16" ht="56">
       <c r="A1388" s="1"/>
       <c r="B1388" s="1" t="s">
         <v>3182</v>
@@ -81863,7 +81863,7 @@
       <c r="O1398" s="1"/>
       <c r="P1398" s="1"/>
     </row>
-    <row r="1399" spans="1:16">
+    <row r="1399" spans="1:16" ht="28">
       <c r="A1399" s="1"/>
       <c r="B1399" s="1" t="s">
         <v>3215</v>
@@ -81899,7 +81899,7 @@
       <c r="O1399" s="1"/>
       <c r="P1399" s="1"/>
     </row>
-    <row r="1400" spans="1:16" ht="28">
+    <row r="1400" spans="1:16" ht="42">
       <c r="A1400" s="1"/>
       <c r="B1400" s="1" t="s">
         <v>3222</v>
